--- a/dz3.xlsx
+++ b/dz3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29501828\Documents\git\archpc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29501828\Documents\bushuev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>x</t>
   </si>
@@ -66,6 +66,51 @@
   </si>
   <si>
     <t>(x or z) &lt;-&gt; (y or z)</t>
+  </si>
+  <si>
+    <t>a0=0</t>
+  </si>
+  <si>
+    <t>a3+A0=0</t>
+  </si>
+  <si>
+    <t>a2+a0=0</t>
+  </si>
+  <si>
+    <t>a2+a3+a23+a0=1</t>
+  </si>
+  <si>
+    <t>a1+a0=0</t>
+  </si>
+  <si>
+    <t>a1+a3+a13+a0=1</t>
+  </si>
+  <si>
+    <t>a1+a2+a12+a0=0</t>
+  </si>
+  <si>
+    <t>a123+a12+a13+a23+a1+a2+a3+a0=1</t>
+  </si>
+  <si>
+    <t>a3=0</t>
+  </si>
+  <si>
+    <t>a2=0</t>
+  </si>
+  <si>
+    <t>a1=0</t>
+  </si>
+  <si>
+    <t>a23=1</t>
+  </si>
+  <si>
+    <t>a13=1</t>
+  </si>
+  <si>
+    <t>a12=0</t>
+  </si>
+  <si>
+    <t>a123=0</t>
   </si>
 </sst>
 </file>
@@ -384,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -454,8 +499,11 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -488,8 +536,14 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -522,8 +576,14 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -556,8 +616,14 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -590,8 +656,14 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -624,8 +696,14 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -658,8 +736,14 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -692,8 +776,14 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -719,7 +809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -750,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -781,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -812,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -843,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
